--- a/메모장.xlsx
+++ b/메모장.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bigdataui_jemin\교육자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E407AD25-C2AC-4DB5-BCDB-D6AE40C3B81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE079A5-F9F3-47CE-A257-228C2C9D1513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5355" yWindow="900" windowWidth="21600" windowHeight="13770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="200">
   <si>
     <t>코리아IT아카데미 대구점</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -767,34 +767,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git push origin</t>
-  </si>
-  <si>
-    <t>git clone https://github.com/NightRwby/GITHUB-TEST2.git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git remote -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 폴더와 연결된 원격저장소 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git clone &lt;저장소 url&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장소 복제하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전역설정-&gt;New Working Directory-&gt;git commit -M main-&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -807,10 +784,6 @@
   </si>
   <si>
     <t>git remote add "저장소이름" "저장소 url"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 저장소와 연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -910,11 +883,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>github에 새로운 저장소 생성</t>
+    <t>usecase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>usecase</t>
+    <t>git branch -M main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//master-&gt;main 브런치이름 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote rename "기존 이름" "변경할 이름"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//제작사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//저장소 이름변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//저장소 복제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//현재 폴더와 연결된 원격저장소 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//새로운 저장소와 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전역설정-&gt;New Working Directory-&gt;git commit -&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M main-&gt;github에 새로운 저장소 생성-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//저장소에 데이터 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push "저장소이름" -&gt; 중간에 떠있는 "git push~~" 복붙 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone "저장소 url"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//저장소로 데이터이동 *GITHUB에서 미리 저장소를 만들어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push "저장소이름" "branch이름"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//저장소로 데이터이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//저장소에 데이터 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull "저장소이름"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1492,6 +1537,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -27305,16 +27362,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C9777C-AE28-429E-90CD-99319A73DE64}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="38.25" x14ac:dyDescent="0.7">
@@ -27631,7 +27690,7 @@
     </row>
     <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -27643,7 +27702,7 @@
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
@@ -27653,12 +27712,14 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>159</v>
+      <c r="A18" s="84" t="s">
+        <v>153</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="66" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -27667,10 +27728,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>161</v>
+      <c r="A19" s="85" t="s">
+        <v>155</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="86" t="s">
+        <v>191</v>
+      </c>
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -27678,28 +27741,32 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="A22" s="9"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -27708,10 +27775,11 @@
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -27720,10 +27788,11 @@
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -27732,10 +27801,10 @@
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -27746,10 +27815,10 @@
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -27759,10 +27828,12 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>160</v>
+      <c r="A27" s="9" t="s">
+        <v>152</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -27770,9 +27841,13 @@
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="5"/>
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -27781,9 +27856,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>188</v>
-      </c>
+      <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -27792,158 +27865,176 @@
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+    <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A40" s="80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>163</v>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="79" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>164</v>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A39" s="80" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="79" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="79" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A30:H30"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B6:C6"/>
@@ -27957,12 +28048,9 @@
     <mergeCell ref="C18:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" display="https://www.drawio.com/" xr:uid="{73FD5270-8658-4C5B-8123-9A292E24C2D8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/메모장.xlsx
+++ b/메모장.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JJM\수업자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jemin\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF7BBC-2382-4A29-B9C1-456B7689D6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0EC0D-29D8-470F-A4FA-B047F1A8E6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학원근처 맛집 리스트" sheetId="133" r:id="rId1"/>
@@ -11572,7 +11572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11848,6 +11848,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -12155,10 +12163,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -12548,9 +12557,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -14691,15 +14702,15 @@
       </c>
       <c r="G2" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(C2:C29,RANDBETWEEN(1,28))</f>
-        <v>양화식당</v>
+        <v>본좌김밥</v>
       </c>
       <c r="H2" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDEX(C30:C36,RANDBETWEEN(1,7))</f>
-        <v>영생덕</v>
+        <v>돌핀99</v>
       </c>
       <c r="I2" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDEX(C37:C39,RANDBETWEEN(1,3))</f>
-        <v>와라이라멘</v>
+        <v>큐산</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -14724,11 +14735,11 @@
       </c>
       <c r="H3" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDEX(D30:D36,RANDBETWEEN(1,7))</f>
-        <v>-</v>
+        <v>만두찐맛집</v>
       </c>
       <c r="I3" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDEX(D37:D39,RANDBETWEEN(1,3))</f>
-        <v>텐동맛집</v>
+        <v>닭육수 일본라멘 맛있음</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -14761,7 +14772,7 @@
       <c r="G5" s="82"/>
       <c r="H5" s="81" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDEX(G1:I1,1,RANDBETWEEN(1,3))</f>
-        <v>한식</v>
+        <v>일식</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19867,8 +19878,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A50"/>
+    <sheetView topLeftCell="A196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -25767,7 +25778,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D22" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -29868,8 +29879,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -45428,8 +45439,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -45474,7 +45485,7 @@
       <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="147" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
